--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H2">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I2">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J2">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.9078655</v>
+        <v>0.8649065</v>
       </c>
       <c r="N2">
-        <v>3.815731</v>
+        <v>1.729813</v>
       </c>
       <c r="O2">
-        <v>0.01269552586568416</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P2">
-        <v>0.00849965309904553</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q2">
-        <v>216.3047824030418</v>
+        <v>80.51116691456076</v>
       </c>
       <c r="R2">
-        <v>865.2191296121671</v>
+        <v>322.044667658243</v>
       </c>
       <c r="S2">
-        <v>0.0008094901533793139</v>
+        <v>0.0001643478283269905</v>
       </c>
       <c r="T2">
-        <v>0.0003843982713950956</v>
+        <v>7.757345200671347E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H3">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I3">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J3">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>4.007239</v>
       </c>
       <c r="O3">
-        <v>0.008888468356299806</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P3">
-        <v>0.008926242805105003</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q3">
-        <v>151.4406125470205</v>
+        <v>124.3400251917548</v>
       </c>
       <c r="R3">
-        <v>908.6436752821231</v>
+        <v>746.040151150529</v>
       </c>
       <c r="S3">
-        <v>0.00056674514227856</v>
+        <v>0.0002538158853923213</v>
       </c>
       <c r="T3">
-        <v>0.0004036908641272175</v>
+        <v>0.0001797046052064185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H4">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I4">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J4">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.66363666666666</v>
+        <v>103.650617</v>
       </c>
       <c r="N4">
-        <v>193.99091</v>
+        <v>310.951851</v>
       </c>
       <c r="O4">
-        <v>0.4302917956590069</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P4">
-        <v>0.4321204611562404</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q4">
-        <v>7331.257815906145</v>
+        <v>9648.478911979744</v>
       </c>
       <c r="R4">
-        <v>43987.54689543687</v>
+        <v>57890.87347187847</v>
       </c>
       <c r="S4">
-        <v>0.02743619881137544</v>
+        <v>0.01969548593830969</v>
       </c>
       <c r="T4">
-        <v>0.01954272208139451</v>
+        <v>0.0139446336048736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H5">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I5">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J5">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.745477</v>
+        <v>0.2220785</v>
       </c>
       <c r="N5">
-        <v>5.236431</v>
+        <v>0.444157</v>
       </c>
       <c r="O5">
-        <v>0.01161494266836776</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P5">
-        <v>0.01166430416009097</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q5">
-        <v>197.8939409903445</v>
+        <v>20.67252261560675</v>
       </c>
       <c r="R5">
-        <v>1187.363645942067</v>
+        <v>82.69009046242701</v>
       </c>
       <c r="S5">
-        <v>0.0007405901749625772</v>
+        <v>4.219891883471285E-05</v>
       </c>
       <c r="T5">
-        <v>0.00052752015922498</v>
+        <v>1.991821758938442E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.3752785</v>
+        <v>93.0865555</v>
       </c>
       <c r="H6">
-        <v>226.750557</v>
+        <v>186.173111</v>
       </c>
       <c r="I6">
-        <v>0.06376184507388979</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J6">
-        <v>0.04522517177062928</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.62584666666666</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N6">
-        <v>241.87754</v>
+        <v>434.038033</v>
       </c>
       <c r="O6">
-        <v>0.5365092674506413</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P6">
-        <v>0.5387893387795181</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q6">
-        <v>9140.977820131629</v>
+        <v>13467.70181598844</v>
       </c>
       <c r="R6">
-        <v>54845.86692078978</v>
+        <v>80806.21089593066</v>
       </c>
       <c r="S6">
-        <v>0.0342088207918939</v>
+        <v>0.0274916838351385</v>
       </c>
       <c r="T6">
-        <v>0.02436684039448748</v>
+        <v>0.01946443258433935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1380.939473333334</v>
+        <v>93.0865555</v>
       </c>
       <c r="H7">
-        <v>4142.818420000001</v>
+        <v>186.173111</v>
       </c>
       <c r="I7">
-        <v>0.776635346964982</v>
+        <v>0.05575903760586427</v>
       </c>
       <c r="J7">
-        <v>0.8262809897266405</v>
+        <v>0.03942930268909006</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.9078655</v>
+        <v>42.688082</v>
       </c>
       <c r="N7">
-        <v>3.815731</v>
+        <v>128.064246</v>
       </c>
       <c r="O7">
-        <v>0.01269552586568416</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P7">
-        <v>0.00849965309904553</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q7">
-        <v>2634.646778760837</v>
+        <v>3973.686514281551</v>
       </c>
       <c r="R7">
-        <v>15807.88067256502</v>
+        <v>23842.1190856893</v>
       </c>
       <c r="S7">
-        <v>0.00985979413559852</v>
+        <v>0.008111505199862061</v>
       </c>
       <c r="T7">
-        <v>0.007023101775012448</v>
+        <v>0.005743040225074587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H8">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I8">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J8">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.335746333333333</v>
+        <v>0.8649065</v>
       </c>
       <c r="N8">
-        <v>4.007239</v>
+        <v>1.729813</v>
       </c>
       <c r="O8">
-        <v>0.008888468356299806</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P8">
-        <v>0.008926242805105003</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q8">
-        <v>1844.584838060265</v>
+        <v>1194.383526592577</v>
       </c>
       <c r="R8">
-        <v>16601.26354254238</v>
+        <v>7166.30115955546</v>
       </c>
       <c r="S8">
-        <v>0.006903098705882163</v>
+        <v>0.002438100779154422</v>
       </c>
       <c r="T8">
-        <v>0.007375584739542466</v>
+        <v>0.001726203768901936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H9">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I9">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J9">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>64.66363666666666</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N9">
-        <v>193.99091</v>
+        <v>4.007239</v>
       </c>
       <c r="O9">
-        <v>0.4302917956590069</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P9">
-        <v>0.4321204611562404</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q9">
-        <v>89296.5683622847</v>
+        <v>1844.584838060264</v>
       </c>
       <c r="R9">
-        <v>803669.1152605623</v>
+        <v>16601.26354254238</v>
       </c>
       <c r="S9">
-        <v>0.334179818017818</v>
+        <v>0.003765359811786201</v>
       </c>
       <c r="T9">
-        <v>0.3570529223253107</v>
+        <v>0.003998877950790534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H10">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I10">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J10">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.745477</v>
+        <v>103.650617</v>
       </c>
       <c r="N10">
-        <v>5.236431</v>
+        <v>310.951851</v>
       </c>
       <c r="O10">
-        <v>0.01161494266836776</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P10">
-        <v>0.01166430416009097</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q10">
-        <v>2410.398089095447</v>
+        <v>143135.228450655</v>
       </c>
       <c r="R10">
-        <v>21693.58280185902</v>
+        <v>1288217.056055896</v>
       </c>
       <c r="S10">
-        <v>0.009020575029226168</v>
+        <v>0.29218262328649</v>
       </c>
       <c r="T10">
-        <v>0.009637992785872539</v>
+        <v>0.3103030542279618</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1380.939473333334</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H11">
-        <v>4142.818420000001</v>
+        <v>4142.81842</v>
       </c>
       <c r="I11">
-        <v>0.776635346964982</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J11">
-        <v>0.8262809897266405</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>80.62584666666666</v>
+        <v>0.2220785</v>
       </c>
       <c r="N11">
-        <v>241.87754</v>
+        <v>0.444157</v>
       </c>
       <c r="O11">
-        <v>0.5365092674506413</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P11">
-        <v>0.5387893387795181</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q11">
-        <v>111339.4142329208</v>
+        <v>306.6769668286566</v>
       </c>
       <c r="R11">
-        <v>1002054.728096287</v>
+        <v>1840.06180097194</v>
       </c>
       <c r="S11">
-        <v>0.4166720610764572</v>
+        <v>0.0006260211524406919</v>
       </c>
       <c r="T11">
-        <v>0.4451913881009024</v>
+        <v>0.0004432302725116398</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.722832</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H12">
-        <v>5.168496</v>
+        <v>4142.81842</v>
       </c>
       <c r="I12">
-        <v>0.0009689144628856607</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J12">
-        <v>0.00103085135705228</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.9078655</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N12">
-        <v>3.815731</v>
+        <v>434.038033</v>
       </c>
       <c r="O12">
-        <v>0.01269552586568416</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P12">
-        <v>0.00849965309904553</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q12">
-        <v>3.286931735096</v>
+        <v>199793.4175658853</v>
       </c>
       <c r="R12">
-        <v>19.721590410576</v>
+        <v>1798140.758092968</v>
       </c>
       <c r="S12">
-        <v>1.230087862520038E-05</v>
+        <v>0.4078392544704553</v>
       </c>
       <c r="T12">
-        <v>8.761878931624703E-06</v>
+        <v>0.4331324185974917</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.722832</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H13">
-        <v>5.168496</v>
+        <v>4142.81842</v>
       </c>
       <c r="I13">
-        <v>0.0009689144628856607</v>
+        <v>0.8271855759558716</v>
       </c>
       <c r="J13">
-        <v>0.00103085135705228</v>
+        <v>0.8774008265249316</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.335746333333333</v>
+        <v>42.688082</v>
       </c>
       <c r="N13">
-        <v>4.007239</v>
+        <v>128.064246</v>
       </c>
       <c r="O13">
-        <v>0.008888468356299806</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P13">
-        <v>0.008926242805105003</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q13">
-        <v>2.301266526949334</v>
+        <v>58949.65747469014</v>
       </c>
       <c r="R13">
-        <v>20.711398742544</v>
+        <v>530546.9172722113</v>
       </c>
       <c r="S13">
-        <v>8.612165543320417E-06</v>
+        <v>0.120334216455545</v>
       </c>
       <c r="T13">
-        <v>9.201629509020643E-06</v>
+        <v>0.127797041707274</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.722832</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H14">
-        <v>5.168496</v>
+        <v>1.324715</v>
       </c>
       <c r="I14">
-        <v>0.0009689144628856607</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J14">
-        <v>0.00103085135705228</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>64.66363666666666</v>
+        <v>0.8649065</v>
       </c>
       <c r="N14">
-        <v>193.99091</v>
+        <v>1.729813</v>
       </c>
       <c r="O14">
-        <v>0.4302917956590069</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P14">
-        <v>0.4321204611562404</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q14">
-        <v>111.4045824857067</v>
+        <v>0.3819182047158333</v>
       </c>
       <c r="R14">
-        <v>1002.64124237136</v>
+        <v>2.291509228295</v>
       </c>
       <c r="S14">
-        <v>0.0004169159440750532</v>
+        <v>7.796114495545645E-07</v>
       </c>
       <c r="T14">
-        <v>0.0004454519637929675</v>
+        <v>5.51973993038519E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.722832</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H15">
-        <v>5.168496</v>
+        <v>1.324715</v>
       </c>
       <c r="I15">
-        <v>0.0009689144628856607</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J15">
-        <v>0.00103085135705228</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.745477</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N15">
-        <v>5.236431</v>
+        <v>4.007239</v>
       </c>
       <c r="O15">
-        <v>0.01161494266836776</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P15">
-        <v>0.01166430416009097</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q15">
-        <v>3.007163630864</v>
+        <v>0.5898277346538889</v>
       </c>
       <c r="R15">
-        <v>27.064472677776</v>
+        <v>5.308449611885</v>
       </c>
       <c r="S15">
-        <v>1.125388593696929E-05</v>
+        <v>1.204018162850198E-06</v>
       </c>
       <c r="T15">
-        <v>1.202416377250033E-05</v>
+        <v>1.278688339080399E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.722832</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H16">
-        <v>5.168496</v>
+        <v>1.324715</v>
       </c>
       <c r="I16">
-        <v>0.0009689144628856607</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J16">
-        <v>0.00103085135705228</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.62584666666666</v>
+        <v>103.650617</v>
       </c>
       <c r="N16">
-        <v>241.87754</v>
+        <v>310.951851</v>
       </c>
       <c r="O16">
-        <v>0.5365092674506413</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P16">
-        <v>0.5387893387795181</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q16">
-        <v>138.9047886644267</v>
+        <v>45.76917569971834</v>
       </c>
       <c r="R16">
-        <v>1250.14309797984</v>
+        <v>411.922581297465</v>
       </c>
       <c r="S16">
-        <v>0.0005198315887051174</v>
+        <v>9.342883625755498E-05</v>
       </c>
       <c r="T16">
-        <v>0.0005554117210461669</v>
+        <v>9.922305754390133E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>207.127739</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H17">
-        <v>414.255478</v>
+        <v>1.324715</v>
       </c>
       <c r="I17">
-        <v>0.1164878885357982</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J17">
-        <v>0.08262284069923646</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.9078655</v>
+        <v>0.2220785</v>
       </c>
       <c r="N17">
-        <v>3.815731</v>
+        <v>0.444157</v>
       </c>
       <c r="O17">
-        <v>0.01269552586568416</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P17">
-        <v>0.00849965309904553</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q17">
-        <v>395.1718673311045</v>
+        <v>0.09806357337583334</v>
       </c>
       <c r="R17">
-        <v>1580.687469324418</v>
+        <v>0.5883814402549999</v>
       </c>
       <c r="S17">
-        <v>0.001478875001945159</v>
+        <v>2.001776392013511E-07</v>
       </c>
       <c r="T17">
-        <v>0.0007022654840012103</v>
+        <v>1.417281017231397E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>207.127739</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H18">
-        <v>414.255478</v>
+        <v>1.324715</v>
       </c>
       <c r="I18">
-        <v>0.1164878885357982</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J18">
-        <v>0.08262284069923646</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1.335746333333333</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N18">
-        <v>4.007239</v>
+        <v>434.038033</v>
       </c>
       <c r="O18">
-        <v>0.008888468356299806</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P18">
-        <v>0.008926242805105003</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q18">
-        <v>276.6701179008737</v>
+        <v>63.88629920951055</v>
       </c>
       <c r="R18">
-        <v>1660.020707405242</v>
+        <v>574.976692885595</v>
       </c>
       <c r="S18">
-        <v>0.001035398911142621</v>
+        <v>0.0001304114067316108</v>
       </c>
       <c r="T18">
-        <v>0.0007375115373288963</v>
+        <v>0.0001384991939623499</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>207.127739</v>
+        <v>0.4415716666666666</v>
       </c>
       <c r="H19">
-        <v>414.255478</v>
+        <v>1.324715</v>
       </c>
       <c r="I19">
-        <v>0.1164878885357982</v>
+        <v>0.0002645023337161812</v>
       </c>
       <c r="J19">
-        <v>0.08262284069923646</v>
+        <v>0.0002805592517158825</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>64.66363666666666</v>
+        <v>42.688082</v>
       </c>
       <c r="N19">
-        <v>193.99091</v>
+        <v>128.064246</v>
       </c>
       <c r="O19">
-        <v>0.4302917956590069</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P19">
-        <v>0.4321204611562404</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q19">
-        <v>13393.63285828416</v>
+        <v>18.84984751554333</v>
       </c>
       <c r="R19">
-        <v>80361.79714970497</v>
+        <v>169.64862763989</v>
       </c>
       <c r="S19">
-        <v>0.05012378273059485</v>
+        <v>3.847828347540932E-05</v>
       </c>
       <c r="T19">
-        <v>0.03570302002499265</v>
+        <v>4.086460977578916E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>207.127739</v>
+        <v>193.5493165</v>
       </c>
       <c r="H20">
-        <v>414.255478</v>
+        <v>387.098633</v>
       </c>
       <c r="I20">
-        <v>0.1164878885357982</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J20">
-        <v>0.08262284069923646</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>1.745477</v>
+        <v>0.8649065</v>
       </c>
       <c r="N20">
-        <v>5.236431</v>
+        <v>1.729813</v>
       </c>
       <c r="O20">
-        <v>0.01161494266836776</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P20">
-        <v>0.01166430416009097</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q20">
-        <v>361.536704486503</v>
+        <v>167.4020619114073</v>
       </c>
       <c r="R20">
-        <v>2169.220226919018</v>
+        <v>669.608247645629</v>
       </c>
       <c r="S20">
-        <v>0.00135300014690251</v>
+        <v>0.000341718625961494</v>
       </c>
       <c r="T20">
-        <v>0.0009637379444866375</v>
+        <v>0.0001612938467193036</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>207.127739</v>
+        <v>193.5493165</v>
       </c>
       <c r="H21">
-        <v>414.255478</v>
+        <v>387.098633</v>
       </c>
       <c r="I21">
-        <v>0.1164878885357982</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J21">
-        <v>0.08262284069923646</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>80.62584666666666</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N21">
-        <v>241.87754</v>
+        <v>4.007239</v>
       </c>
       <c r="O21">
-        <v>0.5365092674506413</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P21">
-        <v>0.5387893387795181</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q21">
-        <v>16699.84932502735</v>
+        <v>258.5327898340479</v>
       </c>
       <c r="R21">
-        <v>100199.0959501641</v>
+        <v>1551.196739004287</v>
       </c>
       <c r="S21">
-        <v>0.06249683174521305</v>
+        <v>0.0005277442147327723</v>
       </c>
       <c r="T21">
-        <v>0.04451630570842707</v>
+        <v>0.0003736490551485133</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>70.81572733333333</v>
+        <v>193.5493165</v>
       </c>
       <c r="H22">
-        <v>212.447182</v>
+        <v>387.098633</v>
       </c>
       <c r="I22">
-        <v>0.03982650798977153</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J22">
-        <v>0.04237237793482528</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.9078655</v>
+        <v>103.650617</v>
       </c>
       <c r="N22">
-        <v>3.815731</v>
+        <v>310.951851</v>
       </c>
       <c r="O22">
-        <v>0.01269552586568416</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P22">
-        <v>0.00849965309904553</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q22">
-        <v>135.1068830366737</v>
+        <v>20061.50607515328</v>
       </c>
       <c r="R22">
-        <v>810.641298220042</v>
+        <v>120369.0364509197</v>
       </c>
       <c r="S22">
-        <v>0.0005056184623240212</v>
+        <v>0.04095164786170653</v>
       </c>
       <c r="T22">
-        <v>0.0003601505134276661</v>
+        <v>0.02899424399763311</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>70.81572733333333</v>
+        <v>193.5493165</v>
       </c>
       <c r="H23">
-        <v>212.447182</v>
+        <v>387.098633</v>
       </c>
       <c r="I23">
-        <v>0.03982650798977153</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J23">
-        <v>0.04237237793482528</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>1.335746333333333</v>
+        <v>0.2220785</v>
       </c>
       <c r="N23">
-        <v>4.007239</v>
+        <v>0.444157</v>
       </c>
       <c r="O23">
-        <v>0.008888468356299806</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P23">
-        <v>0.008926242805105003</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q23">
-        <v>94.59184812783312</v>
+        <v>42.98314188434525</v>
       </c>
       <c r="R23">
-        <v>851.3266331504981</v>
+        <v>171.932567537381</v>
       </c>
       <c r="S23">
-        <v>0.0003539966560090056</v>
+        <v>8.77416921662511E-05</v>
       </c>
       <c r="T23">
-        <v>0.0003782261336759241</v>
+        <v>4.141476048411343E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>70.81572733333333</v>
+        <v>193.5493165</v>
       </c>
       <c r="H24">
-        <v>212.447182</v>
+        <v>387.098633</v>
       </c>
       <c r="I24">
-        <v>0.03982650798977153</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J24">
-        <v>0.04237237793482528</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>64.66363666666666</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N24">
-        <v>193.99091</v>
+        <v>434.038033</v>
       </c>
       <c r="O24">
-        <v>0.4302917956590069</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P24">
-        <v>0.4321204611562404</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q24">
-        <v>4579.202462568402</v>
+        <v>28002.58820738481</v>
       </c>
       <c r="R24">
-        <v>41212.82216311562</v>
+        <v>168015.5292443089</v>
       </c>
       <c r="S24">
-        <v>0.01713701963774658</v>
+        <v>0.05716181662479879</v>
       </c>
       <c r="T24">
-        <v>0.0183099714934832</v>
+        <v>0.04047123241937135</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>70.81572733333333</v>
+        <v>193.5493165</v>
       </c>
       <c r="H25">
-        <v>212.447182</v>
+        <v>387.098633</v>
       </c>
       <c r="I25">
-        <v>0.03982650798977153</v>
+        <v>0.1159364374301381</v>
       </c>
       <c r="J25">
-        <v>0.04237237793482528</v>
+        <v>0.08198299469298757</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.745477</v>
+        <v>42.688082</v>
       </c>
       <c r="N25">
-        <v>5.236431</v>
+        <v>128.064246</v>
       </c>
       <c r="O25">
-        <v>0.01161494266836776</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P25">
-        <v>0.01166430416009097</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q25">
-        <v>123.6072232986047</v>
+        <v>8262.249093795954</v>
       </c>
       <c r="R25">
-        <v>1112.465009687442</v>
+        <v>49573.49456277572</v>
       </c>
       <c r="S25">
-        <v>0.0004625826069824867</v>
+        <v>0.01686576841077225</v>
       </c>
       <c r="T25">
-        <v>0.0004942443042181293</v>
+        <v>0.01194116061363117</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>70.81572733333333</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H26">
-        <v>212.447182</v>
+        <v>3.092606</v>
       </c>
       <c r="I26">
-        <v>0.03982650798977153</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J26">
-        <v>0.04237237793482528</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>80.62584666666666</v>
+        <v>0.8649065</v>
       </c>
       <c r="N26">
-        <v>241.87754</v>
+        <v>1.729813</v>
       </c>
       <c r="O26">
-        <v>0.5365092674506413</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P26">
-        <v>0.5387893387795181</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q26">
-        <v>5709.577973565808</v>
+        <v>0.8916050104463336</v>
       </c>
       <c r="R26">
-        <v>51386.20176209228</v>
+        <v>5.349630062678001</v>
       </c>
       <c r="S26">
-        <v>0.02136729062670943</v>
+        <v>1.820037552651811E-06</v>
       </c>
       <c r="T26">
-        <v>0.02282978549002035</v>
+        <v>1.288607800707988E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.12431</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H27">
-        <v>12.37293</v>
+        <v>3.092606</v>
       </c>
       <c r="I27">
-        <v>0.002319496972672878</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J27">
-        <v>0.002467768511615926</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K27">
         <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>1.9078655</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N27">
-        <v>3.815731</v>
+        <v>4.007239</v>
       </c>
       <c r="O27">
-        <v>0.01269552586568416</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P27">
-        <v>0.00849965309904553</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q27">
-        <v>7.868628760305</v>
+        <v>1.376979041648223</v>
       </c>
       <c r="R27">
-        <v>47.21177256183</v>
+        <v>12.392811374834</v>
       </c>
       <c r="S27">
-        <v>2.944723381194462E-05</v>
+        <v>2.810833873353514E-06</v>
       </c>
       <c r="T27">
-        <v>2.097517627748328E-05</v>
+        <v>2.985154715972927E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.12431</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H28">
-        <v>12.37293</v>
+        <v>3.092606</v>
       </c>
       <c r="I28">
-        <v>0.002319496972672878</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J28">
-        <v>0.002467768511615926</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.335746333333333</v>
+        <v>103.650617</v>
       </c>
       <c r="N28">
-        <v>4.007239</v>
+        <v>310.951851</v>
       </c>
       <c r="O28">
-        <v>0.008888468356299806</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P28">
-        <v>0.008926242805105003</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q28">
-        <v>5.509031960030002</v>
+        <v>106.8501733459674</v>
       </c>
       <c r="R28">
-        <v>49.58128764027001</v>
+        <v>961.6515601137062</v>
       </c>
       <c r="S28">
-        <v>2.061677544413607E-05</v>
+        <v>0.0002181137675523657</v>
       </c>
       <c r="T28">
-        <v>2.202790092147634E-05</v>
+        <v>0.0002316406344750491</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.12431</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H29">
-        <v>12.37293</v>
+        <v>3.092606</v>
       </c>
       <c r="I29">
-        <v>0.002319496972672878</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J29">
-        <v>0.002467768511615926</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>64.66363666666666</v>
+        <v>0.2220785</v>
       </c>
       <c r="N29">
-        <v>193.99091</v>
+        <v>0.444157</v>
       </c>
       <c r="O29">
-        <v>0.4302917956590069</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P29">
-        <v>0.4321204611562404</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q29">
-        <v>266.6928833407</v>
+        <v>0.2289337671903334</v>
       </c>
       <c r="R29">
-        <v>2400.2359500663</v>
+        <v>1.373602603142</v>
       </c>
       <c r="S29">
-        <v>0.0009980605173970432</v>
+        <v>4.673235888926552E-07</v>
       </c>
       <c r="T29">
-        <v>0.001066373267266323</v>
+        <v>3.308705478216766E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.12431</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H30">
-        <v>12.37293</v>
+        <v>3.092606</v>
       </c>
       <c r="I30">
-        <v>0.002319496972672878</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J30">
-        <v>0.002467768511615926</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.745477</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N30">
-        <v>5.236431</v>
+        <v>434.038033</v>
       </c>
       <c r="O30">
-        <v>0.01161494266836776</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P30">
-        <v>0.01166430416009097</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q30">
-        <v>7.19888824587</v>
+        <v>149.1454027871109</v>
       </c>
       <c r="R30">
-        <v>64.78999421283</v>
+        <v>1342.308625083998</v>
       </c>
       <c r="S30">
-        <v>2.694082435704805E-05</v>
+        <v>0.0003044512207732381</v>
       </c>
       <c r="T30">
-        <v>2.878480251618315E-05</v>
+        <v>0.0003233325192536714</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.12431</v>
+        <v>1.030868666666667</v>
       </c>
       <c r="H31">
-        <v>12.37293</v>
+        <v>3.092606</v>
       </c>
       <c r="I31">
-        <v>0.002319496972672878</v>
+        <v>0.0006174924449898013</v>
       </c>
       <c r="J31">
-        <v>0.002467768511615926</v>
+        <v>0.0006549780331709453</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.62584666666666</v>
+        <v>42.688082</v>
       </c>
       <c r="N31">
-        <v>241.87754</v>
+        <v>128.064246</v>
       </c>
       <c r="O31">
-        <v>0.5365092674506413</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P31">
-        <v>0.5387893387795181</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q31">
-        <v>332.5259856658</v>
+        <v>44.00580617389734</v>
       </c>
       <c r="R31">
-        <v>2992.7338709922</v>
+        <v>396.0522555650761</v>
       </c>
       <c r="S31">
-        <v>0.001244431621662706</v>
+        <v>8.982926164929947E-05</v>
       </c>
       <c r="T31">
-        <v>0.00132960736463446</v>
+        <v>9.540024637772219E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3955816666666667</v>
+      </c>
+      <c r="H32">
+        <v>1.186745</v>
+      </c>
+      <c r="I32">
+        <v>0.0002369542294199201</v>
+      </c>
+      <c r="J32">
+        <v>0.0002513388081040564</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.8649065</v>
+      </c>
+      <c r="N32">
+        <v>1.729813</v>
+      </c>
+      <c r="O32">
+        <v>0.002947465296813262</v>
+      </c>
+      <c r="P32">
+        <v>0.001967406134934711</v>
+      </c>
+      <c r="Q32">
+        <v>0.3421411547808333</v>
+      </c>
+      <c r="R32">
+        <v>2.052846928685</v>
+      </c>
+      <c r="S32">
+        <v>6.984143681483427E-07</v>
+      </c>
+      <c r="T32">
+        <v>4.944855130110984E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3955816666666667</v>
+      </c>
+      <c r="H33">
+        <v>1.186745</v>
+      </c>
+      <c r="I33">
+        <v>0.0002369542294199201</v>
+      </c>
+      <c r="J33">
+        <v>0.0002513388081040564</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>1.335746333333333</v>
+      </c>
+      <c r="N33">
+        <v>4.007239</v>
+      </c>
+      <c r="O33">
+        <v>0.004552013382770923</v>
+      </c>
+      <c r="P33">
+        <v>0.004557640966248742</v>
+      </c>
+      <c r="Q33">
+        <v>0.528396760783889</v>
+      </c>
+      <c r="R33">
+        <v>4.755570847055</v>
+      </c>
+      <c r="S33">
+        <v>1.078618823423648E-06</v>
+      </c>
+      <c r="T33">
+        <v>1.145512048223179E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3955816666666667</v>
+      </c>
+      <c r="H34">
+        <v>1.186745</v>
+      </c>
+      <c r="I34">
+        <v>0.0002369542294199201</v>
+      </c>
+      <c r="J34">
+        <v>0.0002513388081040564</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>103.650617</v>
+      </c>
+      <c r="N34">
+        <v>310.951851</v>
+      </c>
+      <c r="O34">
+        <v>0.353224997847493</v>
+      </c>
+      <c r="P34">
+        <v>0.3536616844287238</v>
+      </c>
+      <c r="Q34">
+        <v>41.00228382388834</v>
+      </c>
+      <c r="R34">
+        <v>369.020554414995</v>
+      </c>
+      <c r="S34">
+        <v>8.369815717680565E-05</v>
+      </c>
+      <c r="T34">
+        <v>8.888890623638835E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3955816666666667</v>
+      </c>
+      <c r="H35">
+        <v>1.186745</v>
+      </c>
+      <c r="I35">
+        <v>0.0002369542294199201</v>
+      </c>
+      <c r="J35">
+        <v>0.0002513388081040564</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.2220785</v>
+      </c>
+      <c r="N35">
+        <v>0.444157</v>
+      </c>
+      <c r="O35">
+        <v>0.0007568085936668807</v>
+      </c>
+      <c r="P35">
+        <v>0.0005051628162548184</v>
+      </c>
+      <c r="Q35">
+        <v>0.08785018316083333</v>
+      </c>
+      <c r="R35">
+        <v>0.527101098965</v>
+      </c>
+      <c r="S35">
+        <v>1.793289971307092E-07</v>
+      </c>
+      <c r="T35">
+        <v>1.269670201359745E-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3955816666666667</v>
+      </c>
+      <c r="H36">
+        <v>1.186745</v>
+      </c>
+      <c r="I36">
+        <v>0.0002369542294199201</v>
+      </c>
+      <c r="J36">
+        <v>0.0002513388081040564</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>144.6793443333333</v>
+      </c>
+      <c r="N36">
+        <v>434.038033</v>
+      </c>
+      <c r="O36">
+        <v>0.4930444465247936</v>
+      </c>
+      <c r="P36">
+        <v>0.4936539897198103</v>
+      </c>
+      <c r="Q36">
+        <v>57.23249616362055</v>
+      </c>
+      <c r="R36">
+        <v>515.092465472585</v>
+      </c>
+      <c r="S36">
+        <v>0.0001168289668960535</v>
+      </c>
+      <c r="T36">
+        <v>0.0001240744053919892</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3955816666666667</v>
+      </c>
+      <c r="H37">
+        <v>1.186745</v>
+      </c>
+      <c r="I37">
+        <v>0.0002369542294199201</v>
+      </c>
+      <c r="J37">
+        <v>0.0002513388081040564</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>42.688082</v>
+      </c>
+      <c r="N37">
+        <v>128.064246</v>
+      </c>
+      <c r="O37">
+        <v>0.1454742683544624</v>
+      </c>
+      <c r="P37">
+        <v>0.1456541159340275</v>
+      </c>
+      <c r="Q37">
+        <v>16.88662262436333</v>
+      </c>
+      <c r="R37">
+        <v>151.97960361927</v>
+      </c>
+      <c r="S37">
+        <v>3.447074315835832E-05</v>
+      </c>
+      <c r="T37">
+        <v>3.660853189430852E-05</v>
       </c>
     </row>
   </sheetData>
